--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/15/seed1/result_data_RandomForest.xlsx
@@ -488,13 +488,13 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.901299999999988</v>
+        <v>8.874799999999993</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.312899999999996</v>
+        <v>-7.126799999999995</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>4.864300000000005</v>
+        <v>4.747200000000004</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.624100000000002</v>
+        <v>5.512700000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.422799999999996</v>
+        <v>-7.562199999999995</v>
       </c>
     </row>
     <row r="10">
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.915899999999996</v>
+        <v>-5.883899999999995</v>
       </c>
     </row>
     <row r="13">
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.797599999999997</v>
+        <v>4.791599999999999</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.066199999999993</v>
+        <v>-8.04409999999999</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.314199999999991</v>
+        <v>-9.230199999999989</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.594199999999992</v>
+        <v>-8.56819999999999</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.193799999999989</v>
+        <v>9.102199999999987</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.222599999999991</v>
+        <v>-7.989599999999988</v>
       </c>
     </row>
     <row r="21">
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.925500000000007</v>
+        <v>-7.785300000000007</v>
       </c>
     </row>
     <row r="27">
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.695200000000005</v>
+        <v>5.967900000000006</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.428400000000003</v>
+        <v>5.3195</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -872,7 +872,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.428399999999995</v>
+        <v>-7.669899999999995</v>
       </c>
     </row>
     <row r="32">
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.777799999999998</v>
+        <v>6.615</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.193499999999993</v>
+        <v>-8.239199999999999</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.383199999999995</v>
+        <v>9.587399999999995</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.67039999999999</v>
+        <v>-8.755399999999991</v>
       </c>
     </row>
     <row r="41">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.03159999999999</v>
+        <v>-7.64129999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.29619999999999</v>
+        <v>-8.286699999999989</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.401300000000007</v>
+        <v>-7.468500000000003</v>
       </c>
     </row>
     <row r="44">
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.595300000000003</v>
+        <v>5.838100000000002</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.702600000000001</v>
+        <v>-7.628600000000002</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.379399999999996</v>
+        <v>-7.424699999999996</v>
       </c>
     </row>
     <row r="49">
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.4813</v>
+        <v>5.987300000000001</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.4341</v>
+        <v>5.627599999999997</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.058899999999995</v>
+        <v>4.959599999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.441799999999998</v>
+        <v>4.931000000000001</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1300,7 +1300,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.436099999999997</v>
+        <v>5.406199999999996</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1320,7 +1320,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.5708</v>
+        <v>-6.592899999999994</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.056099999999997</v>
+        <v>-6.960699999999991</v>
       </c>
     </row>
     <row r="65">
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.787199999999995</v>
+        <v>5.678099999999993</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>9.288</v>
+        <v>9.082000000000004</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1468,7 +1468,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.170999999999996</v>
+        <v>9.055799999999994</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1502,7 +1502,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.237599999999997</v>
+        <v>-7.042299999999996</v>
       </c>
     </row>
     <row r="77">
@@ -1572,7 +1572,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.629899999999997</v>
+        <v>-7.721299999999998</v>
       </c>
     </row>
     <row r="82">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.131699999999997</v>
+        <v>-8.290999999999995</v>
       </c>
     </row>
     <row r="90">
@@ -1720,7 +1720,7 @@
         <v>-21.3</v>
       </c>
       <c r="B92" t="n">
-        <v>4.877399999999997</v>
+        <v>5.052599999999995</v>
       </c>
       <c r="C92" t="n">
         <v>-9.789999999999999</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-5.898999999999997</v>
+        <v>-5.923599999999998</v>
       </c>
     </row>
     <row r="95">
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>4.458600000000003</v>
+        <v>4.797800000000002</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
